--- a/Экономика5.xlsx
+++ b/Экономика5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\дз\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0169466\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5504B3-7353-471D-979E-EE330959F269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D4A22-A848-4871-8DA1-791DA303620A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23A3447E-5892-41DC-A0F4-9B04FC663AE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{23A3447E-5892-41DC-A0F4-9B04FC663AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Процент</t>
   </si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>ИП запросило меньше</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Страховые выплаты</t>
   </si>
 </sst>
 </file>
@@ -253,26 +253,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,6 +280,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -615,230 +618,239 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
         <v>50000</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>0.13</v>
       </c>
-      <c r="F5" s="10">
-        <v>61403.508771929824</v>
-      </c>
-      <c r="G5" s="13">
-        <f>F5-(E6+E5)*F5</f>
-        <v>35000</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="F5" s="4">
+        <v>34482.758620689652</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F5-F5*E5</f>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="31">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="25">
         <v>0.3</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="1" t="s">
+      <c r="F6" s="4">
+        <f>F5+E6*F5</f>
+        <v>44827.586206896551</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16">
+        <f>F5-E5*F5</f>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="28" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="29">
-        <f>F5-(E5+E6)*F5</f>
-        <v>35000</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>